--- a/Custom Charts Icon/forTesting.xlsx
+++ b/Custom Charts Icon/forTesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" state="visible" r:id="rId2"/>
@@ -1831,7 +1831,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1860,12 +1860,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1929,16 +1923,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1954,19 +1944,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2025,7 +2015,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -4948,193 +4938,193 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4"/>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4"/>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4"/>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4"/>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4"/>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4"/>
+      <c r="A176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4"/>
+      <c r="A177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4"/>
+      <c r="A178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4"/>
+      <c r="A179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4"/>
+      <c r="A188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4"/>
+      <c r="A189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4"/>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4"/>
+      <c r="A203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4"/>
+      <c r="A204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4"/>
+      <c r="A205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4"/>
+      <c r="A206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4"/>
+      <c r="A210" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H210"/>
@@ -5154,13 +5144,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5175,70 +5165,40 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>64</v>
+        <v>481</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>32</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>70</v>
+        <v>1303</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>481</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1303</v>
-      </c>
-      <c r="C7" s="0" t="n">
         <v>813</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5276,7 +5236,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5300,12 +5260,12 @@
       <c r="G1" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -5331,7 +5291,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -5357,7 +5317,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -5383,7 +5343,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -5409,7 +5369,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -5435,7 +5395,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -5461,7 +5421,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -5487,7 +5447,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -5513,7 +5473,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -5539,7 +5499,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -5565,7 +5525,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -5591,7 +5551,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -5617,7 +5577,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -5643,7 +5603,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -5669,7 +5629,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -5695,7 +5655,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -5721,7 +5681,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -5747,7 +5707,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -5773,7 +5733,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -5799,7 +5759,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -5825,7 +5785,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -5851,7 +5811,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -5877,7 +5837,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -5903,7 +5863,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5929,7 +5889,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -5955,7 +5915,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -5981,7 +5941,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -6007,7 +5967,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -6033,7 +5993,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -6059,7 +6019,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -6085,7 +6045,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -6111,7 +6071,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -6137,7 +6097,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -6163,7 +6123,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -6189,7 +6149,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -6215,7 +6175,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -6241,7 +6201,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -6267,7 +6227,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -6293,7 +6253,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -6319,7 +6279,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -6345,7 +6305,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -6371,7 +6331,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -6397,7 +6357,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -6423,7 +6383,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -6449,7 +6409,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -6475,7 +6435,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -6501,7 +6461,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -6527,7 +6487,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -6553,7 +6513,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -6579,7 +6539,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -6605,7 +6565,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -6631,7 +6591,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -6657,7 +6617,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -6683,7 +6643,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -6709,7 +6669,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -6735,7 +6695,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -6761,7 +6721,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -6787,7 +6747,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -6813,7 +6773,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -6839,7 +6799,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -6865,7 +6825,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -6891,7 +6851,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -6917,7 +6877,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -6943,7 +6903,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -6969,7 +6929,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -6995,7 +6955,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -7021,7 +6981,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -7047,7 +7007,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -7073,7 +7033,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -7099,7 +7059,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -7125,7 +7085,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -7151,7 +7111,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -7177,7 +7137,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -7203,7 +7163,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -7229,7 +7189,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -7255,7 +7215,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -7281,7 +7241,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -7307,7 +7267,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -7333,7 +7293,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -7359,7 +7319,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -7385,7 +7345,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -7411,7 +7371,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -7437,7 +7397,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -7463,7 +7423,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -7489,7 +7449,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -7515,7 +7475,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -7541,7 +7501,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -7567,7 +7527,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -7593,7 +7553,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -7619,7 +7579,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -7645,7 +7605,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -7671,7 +7631,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -7697,7 +7657,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -7723,7 +7683,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -7749,7 +7709,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -7775,7 +7735,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -7801,7 +7761,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -7827,7 +7787,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -7853,7 +7813,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -7879,7 +7839,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -7905,7 +7865,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -7931,7 +7891,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -7957,7 +7917,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -7983,7 +7943,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -8009,7 +7969,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -8035,7 +7995,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -8061,7 +8021,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B108" s="0" t="n">
@@ -8087,7 +8047,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B109" s="0" t="n">
@@ -8113,7 +8073,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B110" s="0" t="n">
@@ -8139,7 +8099,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B111" s="0" t="n">
@@ -8165,7 +8125,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B112" s="0" t="n">
@@ -8191,7 +8151,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B113" s="0" t="n">
@@ -8217,7 +8177,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B114" s="0" t="n">
@@ -8243,7 +8203,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B115" s="0" t="n">
@@ -8269,7 +8229,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B116" s="0" t="n">
@@ -8295,7 +8255,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B117" s="0" t="n">
@@ -8321,7 +8281,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B118" s="0" t="n">
@@ -8347,7 +8307,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B119" s="0" t="n">
@@ -8373,7 +8333,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B120" s="0" t="n">
@@ -8399,7 +8359,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B121" s="0" t="n">
@@ -8425,7 +8385,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B122" s="0" t="n">
@@ -8451,7 +8411,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B123" s="0" t="n">
@@ -8477,7 +8437,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B124" s="0" t="n">
@@ -8503,7 +8463,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B125" s="0" t="n">
@@ -8529,7 +8489,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B126" s="0" t="n">
@@ -8555,7 +8515,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B127" s="0" t="n">
@@ -8581,7 +8541,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B128" s="0" t="n">
@@ -8607,7 +8567,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B129" s="0" t="n">
@@ -8633,7 +8593,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B130" s="0" t="n">
@@ -8659,7 +8619,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B131" s="0" t="n">
@@ -8685,7 +8645,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B132" s="0" t="n">
@@ -8711,7 +8671,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B133" s="0" t="n">
@@ -8737,7 +8697,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B134" s="0" t="n">
@@ -8763,7 +8723,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B135" s="0" t="n">
@@ -8789,7 +8749,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B136" s="0" t="n">
@@ -8815,7 +8775,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B137" s="0" t="n">
@@ -8841,7 +8801,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B138" s="0" t="n">
@@ -8867,7 +8827,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B139" s="0" t="n">
@@ -8893,7 +8853,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B140" s="0" t="n">
@@ -8919,7 +8879,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B141" s="0" t="n">
@@ -8945,7 +8905,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B142" s="0" t="n">
@@ -8971,7 +8931,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B143" s="0" t="n">
@@ -8997,7 +8957,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B144" s="0" t="n">
@@ -9023,7 +8983,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B145" s="0" t="n">
@@ -9049,7 +9009,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B146" s="0" t="n">
@@ -9075,7 +9035,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B147" s="0" t="n">
@@ -9101,7 +9061,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B148" s="0" t="n">
@@ -9127,7 +9087,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B149" s="0" t="n">
@@ -9153,7 +9113,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B150" s="0" t="n">
@@ -9179,7 +9139,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B151" s="0" t="n">
@@ -9205,7 +9165,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B152" s="0" t="n">
@@ -9231,7 +9191,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B153" s="0" t="n">
@@ -9257,7 +9217,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B154" s="0" t="n">
@@ -9283,7 +9243,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B155" s="0" t="n">
@@ -9309,7 +9269,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B156" s="0" t="n">
@@ -9335,7 +9295,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B157" s="0" t="n">
@@ -9361,7 +9321,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B158" s="0" t="n">
@@ -9387,7 +9347,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+      <c r="A159" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B159" s="0" t="n">
@@ -9413,7 +9373,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
+      <c r="A160" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B160" s="0" t="n">
@@ -9439,7 +9399,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B161" s="0" t="n">
@@ -9465,7 +9425,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
+      <c r="A162" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B162" s="0" t="n">
@@ -9491,7 +9451,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B163" s="0" t="n">
@@ -9517,7 +9477,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B164" s="0" t="n">
@@ -9543,7 +9503,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B165" s="0" t="n">
@@ -9569,7 +9529,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
+      <c r="A166" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B166" s="0" t="n">
@@ -9595,7 +9555,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
+      <c r="A167" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B167" s="0" t="n">
@@ -9621,7 +9581,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
+      <c r="A168" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B168" s="0" t="n">
@@ -9647,7 +9607,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
+      <c r="A169" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B169" s="0" t="n">
@@ -9673,7 +9633,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
+      <c r="A170" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B170" s="0" t="n">
@@ -9699,7 +9659,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
+      <c r="A171" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B171" s="0" t="n">
@@ -9725,7 +9685,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
+      <c r="A172" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B172" s="0" t="n">
@@ -9751,7 +9711,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B173" s="0" t="n">
@@ -9777,7 +9737,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B174" s="0" t="n">
@@ -9803,7 +9763,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+      <c r="A175" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B175" s="0" t="n">
@@ -9829,7 +9789,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+      <c r="A176" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B176" s="0" t="n">
@@ -9855,7 +9815,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B177" s="0" t="n">
@@ -9881,7 +9841,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B178" s="0" t="n">
@@ -9907,7 +9867,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B179" s="0" t="n">
@@ -9933,7 +9893,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B180" s="0" t="n">
@@ -9959,7 +9919,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B181" s="0" t="n">
@@ -9985,7 +9945,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B182" s="0" t="n">
@@ -10011,7 +9971,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B183" s="0" t="n">
@@ -10037,7 +9997,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B184" s="0" t="n">
@@ -10063,7 +10023,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B185" s="0" t="n">
@@ -10089,7 +10049,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
+      <c r="A186" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B186" s="0" t="n">
@@ -10115,7 +10075,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
+      <c r="A187" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B187" s="0" t="n">
@@ -10141,7 +10101,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
+      <c r="A188" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B188" s="0" t="n">
@@ -10167,7 +10127,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
+      <c r="A189" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B189" s="0" t="n">
@@ -10193,7 +10153,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="A190" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B190" s="0" t="n">
@@ -10219,7 +10179,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B191" s="0" t="n">
@@ -10245,7 +10205,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B192" s="0" t="n">
@@ -10271,7 +10231,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
+      <c r="A193" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B193" s="0" t="n">
@@ -10297,7 +10257,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B194" s="0" t="n">
@@ -10323,7 +10283,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
+      <c r="A195" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B195" s="0" t="n">
@@ -10349,7 +10309,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+      <c r="A196" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B196" s="0" t="n">
@@ -10375,7 +10335,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+      <c r="A197" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B197" s="0" t="n">
@@ -10401,7 +10361,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B198" s="0" t="n">
@@ -10427,7 +10387,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B199" s="0" t="n">
@@ -10453,7 +10413,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+      <c r="A200" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B200" s="0" t="n">
@@ -10479,7 +10439,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+      <c r="A201" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B201" s="0" t="n">
@@ -10505,7 +10465,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+      <c r="A202" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B202" s="0" t="n">
@@ -10531,7 +10491,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
+      <c r="A203" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B203" s="0" t="n">
@@ -10557,7 +10517,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
+      <c r="A204" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B204" s="0" t="n">
@@ -10583,7 +10543,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B205" s="0" t="n">
@@ -10609,7 +10569,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="n">
+      <c r="A206" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B206" s="0" t="n">
@@ -10635,7 +10595,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="n">
+      <c r="A207" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B207" s="0" t="n">
@@ -10661,7 +10621,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="n">
+      <c r="A208" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B208" s="0" t="n">
@@ -10687,7 +10647,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
+      <c r="A209" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B209" s="0" t="n">
@@ -10713,7 +10673,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="n">
+      <c r="A210" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B210" s="0" t="n">
@@ -10760,16 +10720,16 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -11290,42 +11250,42 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>596</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -11334,26 +11294,26 @@
       <c r="C3" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>-12</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="4" t="n">
         <v>-54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>597</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -11362,12 +11322,12 @@
       <c r="C5" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -11376,26 +11336,26 @@
       <c r="C6" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>597</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="5" t="n">
         <v>-65</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>596</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -11404,7 +11364,7 @@
       <c r="C8" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Custom Charts Icon/forTesting.xlsx
+++ b/Custom Charts Icon/forTesting.xlsx
@@ -5147,7 +5147,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5182,7 +5182,7 @@
         <v>481</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
